--- a/stata (Автосохраненный).xlsx
+++ b/stata (Автосохраненный).xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:F402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +883,8 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="9"/>
+      <c r="C19"/>
+      <c r="D19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" s="9"/>

--- a/stata (Автосохраненный).xlsx
+++ b/stata (Автосохраненный).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Матч</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>1 вин первая крата</t>
+  </si>
+  <si>
+    <t>zero тенесити - eyeballers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eyeballers map1 </t>
+  </si>
+  <si>
+    <t>zero тенесити карта2</t>
   </si>
 </sst>
 </file>
@@ -506,20 +515,20 @@
   <dimension ref="A1:F402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -556,11 +565,11 @@
         <v>6</v>
       </c>
       <c r="F2" s="11">
-        <f>C2*D2-C2</f>
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f>C2*D2</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -577,11 +586,11 @@
         <v>6</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F16" si="0">C3*D3-C3</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F3:F21" si="0">C3*D3</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -599,10 +608,10 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -617,10 +626,10 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>634.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1984.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -638,10 +647,10 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>5917.4500000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13602.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -659,10 +668,10 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -678,11 +687,9 @@
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -700,10 +707,10 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -721,10 +728,10 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -740,11 +747,9 @@
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -762,10 +767,10 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>990</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -783,10 +788,10 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -804,10 +809,10 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -825,7 +830,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -843,10 +848,10 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
-        <v>1625.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3947.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -864,7 +869,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -882,1157 +887,1210 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="11">
+        <v>8000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.87</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>14960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2500</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="11">
+        <v>6000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="9"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="9"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="9"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="9"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="9"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="9"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="9"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" s="9"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" s="9"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" s="9"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" s="9"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" s="9"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" s="9"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164" s="9"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165" s="9"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166" s="9"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167" s="9"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D168" s="9"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D169" s="9"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D170" s="9"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D171" s="9"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D174" s="9"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D175" s="9"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D177" s="9"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D178" s="9"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D179" s="9"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D180" s="9"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D182" s="9"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D183" s="9"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D184" s="9"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D185" s="9"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D186" s="9"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D187" s="9"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D188" s="9"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D189" s="9"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D190" s="9"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D191" s="9"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D192" s="9"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D194" s="9"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D195" s="9"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D196" s="9"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D197" s="9"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D198" s="9"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D199" s="9"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D200" s="9"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D201" s="9"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D202" s="9"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D203" s="9"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D204" s="9"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D205" s="9"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D206" s="9"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D207" s="9"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D208" s="9"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D209" s="9"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D210" s="9"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D211" s="9"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D212" s="9"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D213" s="9"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D214" s="9"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D215" s="9"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D216" s="9"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D217" s="9"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D218" s="9"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D219" s="9"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D220" s="9"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D221" s="9"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D222" s="9"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D223" s="9"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D224" s="9"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D225" s="9"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D226" s="9"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D227" s="9"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D228" s="9"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D229" s="9"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D230" s="9"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D231" s="9"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D232" s="9"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D233" s="9"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D234" s="9"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D235" s="9"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D236" s="9"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D237" s="9"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D238" s="9"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D239" s="9"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D240" s="9"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D241" s="9"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D242" s="9"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D243" s="9"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D244" s="9"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D245" s="9"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D246" s="9"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D247" s="9"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D248" s="9"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D249" s="9"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D250" s="9"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D251" s="9"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D252" s="9"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D253" s="9"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D254" s="9"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D255" s="9"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D256" s="9"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D257" s="9"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D258" s="9"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D259" s="9"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D260" s="9"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D261" s="9"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D262" s="9"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D263" s="9"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D264" s="9"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D265" s="9"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D266" s="9"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D267" s="9"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D268" s="9"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D269" s="9"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D270" s="9"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D271" s="9"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D272" s="9"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273" s="9"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274" s="9"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275" s="9"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="9"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277" s="9"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278" s="9"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279" s="9"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280" s="9"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281" s="9"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282" s="9"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283" s="9"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284" s="9"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285" s="9"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286" s="9"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287" s="9"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288" s="9"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D289" s="9"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D290" s="9"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D291" s="9"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D292" s="9"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D293" s="9"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D294" s="9"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D295" s="9"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D296" s="9"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D297" s="9"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D298" s="9"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D299" s="9"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D300" s="9"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D301" s="9"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D302" s="9"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D303" s="9"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D304" s="9"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305" s="9"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306" s="9"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307" s="9"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308" s="9"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309" s="9"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310" s="9"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311" s="9"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312" s="9"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313" s="9"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D314" s="9"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D315" s="9"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D316" s="9"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D317" s="9"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D318" s="9"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D319" s="9"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D320" s="9"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D321" s="9"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D322" s="9"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D323" s="9"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D324" s="9"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D325" s="9"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D326" s="9"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D327" s="9"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D328" s="9"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D329" s="9"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D330" s="9"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D331" s="9"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D332" s="9"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D333" s="9"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D335" s="9"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D336" s="9"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D337" s="9"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D338" s="9"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D339" s="9"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D340" s="9"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D341" s="9"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D342" s="9"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D343" s="9"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D344" s="9"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D345" s="9"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D346" s="9"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D347" s="9"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D348" s="9"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D349" s="9"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D350" s="9"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D351" s="9"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D352" s="9"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D353" s="9"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D354" s="9"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D355" s="9"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D356" s="9"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D357" s="9"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D358" s="9"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D359" s="9"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D360" s="9"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D361" s="9"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D362" s="9"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D363" s="9"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D364" s="9"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D365" s="9"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D366" s="9"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D367" s="9"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D368" s="9"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D369" s="9"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D370" s="9"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D371" s="9"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D372" s="9"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D373" s="9"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D374" s="9"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D375" s="9"/>
     </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D376" s="9"/>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D377" s="9"/>
     </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D378" s="9"/>
     </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D379" s="9"/>
     </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D380" s="9"/>
     </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D381" s="9"/>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D382" s="9"/>
     </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D383" s="9"/>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D384" s="9"/>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D385" s="9"/>
     </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D386" s="9"/>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D387" s="9"/>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D388" s="9"/>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D389" s="9"/>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D390" s="9"/>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D391" s="9"/>
     </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D392" s="9"/>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D393" s="9"/>
     </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D394" s="9"/>
     </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D395" s="9"/>
     </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D396" s="9"/>
     </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D397" s="9"/>
     </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D398" s="9"/>
     </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D399" s="9"/>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D400" s="9"/>
     </row>
-    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D401" s="9"/>
     </row>
-    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D402" s="9"/>
     </row>
   </sheetData>

--- a/stata (Автосохраненный).xlsx
+++ b/stata (Автосохраненный).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="11115"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Матч</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>zero тенесити карта2</t>
+  </si>
+  <si>
+    <t>navy.j - Illuminar</t>
+  </si>
+  <si>
+    <t>navy.j победа</t>
   </si>
 </sst>
 </file>
@@ -515,20 +521,20 @@
   <dimension ref="A1:F402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -569,7 +575,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -586,11 +592,11 @@
         <v>6</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F21" si="0">C3*D3</f>
+        <f t="shared" ref="F3:F22" si="0">C3*D3</f>
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -611,7 +617,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -629,7 +635,7 @@
         <v>1984.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -650,7 +656,7 @@
         <v>13602.45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -671,7 +677,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -689,7 +695,7 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -710,7 +716,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -731,7 +737,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -749,7 +755,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -770,7 +776,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -791,7 +797,7 @@
         <v>10660</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -812,7 +818,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -830,7 +836,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -851,7 +857,7 @@
         <v>3947.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -869,7 +875,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -887,7 +893,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -908,7 +914,7 @@
         <v>14960</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -929,7 +935,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -950,1147 +956,1165 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="9"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="9"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="9"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="9"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="9"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="9"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="9"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="9"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="9"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="9"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="9"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="9"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="9"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="9"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="9"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="9"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="9"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="9"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="9"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="9"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="9"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="9"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="9"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="9"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="9"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="9"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="9"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="9"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="9"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="9"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="9"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="9"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="9"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="9"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="9"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="9"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="9"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="9"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="9"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="9"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="9"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="9"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="9"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="9"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="9"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="9"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="9"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="9"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="9"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="9"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="9"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="9"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="9"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="9"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="9"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="9"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="9"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="9"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="9"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="9"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="9"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="9"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="9"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="9"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="9"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="9"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="9"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="9"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="9"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="9"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="9"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="9"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="9"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="9"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="9"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="9"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="9"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="9"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="9"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="9"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="9"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="9"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="9"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="9"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="9"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="9"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="9"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="9"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="9"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="9"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="9"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" s="9"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" s="9"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" s="9"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" s="9"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" s="9"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" s="9"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" s="9"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" s="9"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" s="9"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" s="9"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" s="9"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" s="9"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" s="9"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" s="9"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" s="9"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" s="9"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" s="9"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" s="9"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" s="9"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" s="9"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" s="9"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="9"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="9"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="9"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" s="9"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" s="9"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" s="9"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" s="9"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" s="9"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" s="9"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" s="9"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" s="9"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" s="9"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" s="9"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" s="9"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" s="9"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" s="9"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" s="9"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" s="9"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" s="9"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" s="9"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="9"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" s="9"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251" s="9"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" s="9"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" s="9"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254" s="9"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" s="9"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D256" s="9"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" s="9"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" s="9"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" s="9"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" s="9"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" s="9"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" s="9"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" s="9"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" s="9"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" s="9"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" s="9"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" s="9"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" s="9"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" s="9"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" s="9"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" s="9"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" s="9"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" s="9"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" s="9"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" s="9"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" s="9"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" s="9"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" s="9"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" s="9"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" s="9"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" s="9"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" s="9"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" s="9"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" s="9"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" s="9"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" s="9"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" s="9"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" s="9"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D289" s="9"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D290" s="9"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D291" s="9"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D292" s="9"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D293" s="9"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D294" s="9"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D295" s="9"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D296" s="9"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D297" s="9"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D298" s="9"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D299" s="9"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D300" s="9"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D301" s="9"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D302" s="9"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D303" s="9"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D304" s="9"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D305" s="9"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D306" s="9"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D307" s="9"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D308" s="9"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D309" s="9"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D310" s="9"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D311" s="9"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D312" s="9"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D313" s="9"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D314" s="9"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D315" s="9"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D316" s="9"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D317" s="9"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D318" s="9"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D319" s="9"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D320" s="9"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D321" s="9"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D322" s="9"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D323" s="9"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D324" s="9"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D325" s="9"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D326" s="9"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D327" s="9"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D328" s="9"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D329" s="9"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D330" s="9"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D331" s="9"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D332" s="9"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D333" s="9"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D334" s="9"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D335" s="9"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D336" s="9"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D337" s="9"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D338" s="9"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D339" s="9"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D340" s="9"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D341" s="9"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D342" s="9"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D343" s="9"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D344" s="9"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D345" s="9"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D346" s="9"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D347" s="9"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D348" s="9"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D349" s="9"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D350" s="9"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D351" s="9"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D352" s="9"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D353" s="9"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D354" s="9"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D355" s="9"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D356" s="9"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D357" s="9"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D358" s="9"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D359" s="9"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D360" s="9"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D361" s="9"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D362" s="9"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D363" s="9"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D364" s="9"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D365" s="9"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D366" s="9"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D367" s="9"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D368" s="9"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D369" s="9"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D370" s="9"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D371" s="9"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D372" s="9"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D373" s="9"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D374" s="9"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D375" s="9"/>
     </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D376" s="9"/>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D377" s="9"/>
     </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D378" s="9"/>
     </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D379" s="9"/>
     </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D380" s="9"/>
     </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D381" s="9"/>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D382" s="9"/>
     </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D383" s="9"/>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D384" s="9"/>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D385" s="9"/>
     </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D386" s="9"/>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D387" s="9"/>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D388" s="9"/>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D389" s="9"/>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D390" s="9"/>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D391" s="9"/>
     </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D392" s="9"/>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D393" s="9"/>
     </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D394" s="9"/>
     </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D395" s="9"/>
     </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D396" s="9"/>
     </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D397" s="9"/>
     </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D398" s="9"/>
     </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D399" s="9"/>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D400" s="9"/>
     </row>
-    <row r="401" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D401" s="9"/>
     </row>
-    <row r="402" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D402" s="9"/>
     </row>
   </sheetData>

--- a/stata (Автосохраненный).xlsx
+++ b/stata (Автосохраненный).xlsx
@@ -521,7 +521,7 @@
   <dimension ref="A1:F402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
